--- a/GRU记录表.xlsx
+++ b/GRU记录表.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_project\Sentiment_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C47183C-11F8-477D-BF63-EED272DDB21B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314950D-75FF-4364-8356-1135DC6F1F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="2850" windowWidth="26025" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -476,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +484,7 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.75" bestFit="1" customWidth="1"/>
@@ -581,7 +580,9 @@
       <c r="D2" s="5">
         <v>0.9385</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2">
+        <v>0.94399999999999995</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -613,7 +614,9 @@
       <c r="D3" s="5">
         <v>0.94110000000000005</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3">
+        <v>0.94950000000000001</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -645,7 +648,9 @@
       <c r="D4" s="8">
         <v>0.88458199999999998</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4">
+        <v>0.92833699999999997</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -679,6 +684,9 @@
       <c r="D5">
         <v>0.94910000000000005</v>
       </c>
+      <c r="E5">
+        <v>0.95599999999999996</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -691,6 +699,9 @@
       <c r="D6" s="7">
         <v>0.94120000000000004</v>
       </c>
+      <c r="E6" s="7">
+        <v>0.95020000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -703,6 +714,9 @@
       <c r="D7">
         <v>0.87845899999999999</v>
       </c>
+      <c r="E7" s="7">
+        <v>0.92924200000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -717,7 +731,9 @@
       <c r="D8" s="5">
         <v>0.96599999999999997</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8">
+        <v>0.97030000000000005</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -749,7 +765,9 @@
       <c r="D9" s="5">
         <v>0.93489999999999995</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9">
+        <v>0.94210000000000005</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -781,7 +799,9 @@
       <c r="D10" s="5">
         <v>0.86026100000000005</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10">
+        <v>0.91580099999999998</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -815,6 +835,9 @@
       <c r="D11" s="7">
         <v>0.9849</v>
       </c>
+      <c r="E11">
+        <v>0.98699999999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -827,6 +850,9 @@
       <c r="D12">
         <v>0.93</v>
       </c>
+      <c r="E12">
+        <v>0.93400000000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -839,6 +865,9 @@
       <c r="D13">
         <v>0.83729900000000002</v>
       </c>
+      <c r="E13">
+        <v>0.90248899999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -851,7 +880,9 @@
         <v>0.99670000000000003</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="E14" s="7">
+        <v>0.99490000000000001</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -881,7 +912,9 @@
         <v>0.96220000000000006</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15">
+        <v>0.93479999999999996</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -911,7 +944,9 @@
         <v>0.90649100000000005</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16">
+        <v>0.88902800000000004</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>

--- a/GRU记录表.xlsx
+++ b/GRU记录表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_project\Sentiment_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314950D-75FF-4364-8356-1135DC6F1F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B45503-0A59-4466-A5C7-E137D61171F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="2670" windowWidth="19560" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>train_acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ROC-AUC score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,13 +116,20 @@
   <si>
     <t>location_easy_to_find</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loss: binary_crossentropy             metrics: accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +151,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +177,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +217,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -473,10 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,121 +534,103 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>0.96389999999999998</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D3" s="5">
         <v>0.9385</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="5">
         <v>0.94399999999999995</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.9698</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.94110000000000005</v>
-      </c>
-      <c r="E3">
-        <v>0.94950000000000001</v>
-      </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>0.95250000000000001</v>
+      </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -640,18 +653,20 @@
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6">
-        <v>0.93382699999999996</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.88458199999999998</v>
-      </c>
-      <c r="E4">
-        <v>0.92833699999999997</v>
-      </c>
-      <c r="F4" s="5"/>
+        <v>0.9698</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.94110000000000005</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.9556</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -672,103 +687,116 @@
       <c r="X4" s="5"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.93382699999999996</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.88458199999999998</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.92833699999999997</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.90368000000000004</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.94910000000000005</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>0.95599999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.96840000000000004</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.95020000000000004</v>
+      <c r="F6" s="5">
+        <v>0.95899999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.95020000000000004</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.95520000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.93213500000000005</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.87845899999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>0.92924200000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="F8" s="5">
+        <v>0.899146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C9" s="4">
         <v>0.98180000000000001</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>0.96599999999999997</v>
       </c>
-      <c r="E8">
+      <c r="E9" s="5">
         <v>0.97030000000000005</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.96419999999999995</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.93489999999999995</v>
-      </c>
-      <c r="E9">
-        <v>0.94210000000000005</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="8">
+        <v>0.97050000000000003</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -791,18 +819,20 @@
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4">
-        <v>0.92017700000000002</v>
+        <v>0.96419999999999995</v>
       </c>
       <c r="D10" s="5">
-        <v>0.86026100000000005</v>
-      </c>
-      <c r="E10">
-        <v>0.91580099999999998</v>
-      </c>
-      <c r="F10" s="5"/>
+        <v>0.93489999999999995</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.94210000000000005</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.95069999999999999</v>
+      </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -823,97 +853,101 @@
       <c r="X10" s="5"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.92017700000000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.86026100000000005</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.91580099999999998</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.88563800000000004</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>0.99180000000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>0.9849</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>0.98699999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.96360000000000001</v>
-      </c>
-      <c r="D12">
-        <v>0.93</v>
-      </c>
-      <c r="E12">
-        <v>0.93400000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
+        <v>0.96360000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.93</v>
+      </c>
+      <c r="E13">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.91022400000000003</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.83729900000000002</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>0.90248899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>0.99670000000000003</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="7">
+      <c r="D15" s="5"/>
+      <c r="E15" s="8">
         <v>0.99490000000000001</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.96220000000000006</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15">
-        <v>0.93479999999999996</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -938,14 +972,14 @@
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
-        <v>0.90649100000000005</v>
+        <v>0.96220000000000006</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16">
-        <v>0.88902800000000004</v>
+      <c r="E16" s="5">
+        <v>0.93479999999999996</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
@@ -967,9 +1001,53 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.90649100000000005</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <v>0.88902800000000004</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>